--- a/artfynd/A 45488-2025 artfynd.xlsx
+++ b/artfynd/A 45488-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3562,6 +3562,103 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131180038</v>
+      </c>
+      <c r="B28" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Råsjön, Råsjön, Ög</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>568061</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6506679</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Eva Siljeholm</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Eva Siljeholm</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 45488-2025 artfynd.xlsx
+++ b/artfynd/A 45488-2025 artfynd.xlsx
@@ -3567,7 +3567,7 @@
         <v>131180038</v>
       </c>
       <c r="B28" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/artfynd/A 45488-2025 artfynd.xlsx
+++ b/artfynd/A 45488-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,6 +3659,216 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131237131</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Udden i Råsjön, Ög</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>568107</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6506605</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131237070</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Udden i Råsjön, Ög</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>568119</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6506603</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 45488-2025 artfynd.xlsx
+++ b/artfynd/A 45488-2025 artfynd.xlsx
@@ -3567,7 +3567,7 @@
         <v>131180038</v>
       </c>
       <c r="B28" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
